--- a/modbus_server/mappingTable.xlsx
+++ b/modbus_server/mappingTable.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A553630-AECE-4ECC-9263-D1953ABF7423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6435FA-BFD5-49AE-A57B-0CBFA4862767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coil" sheetId="1" r:id="rId1"/>
-    <sheet name="HoldingRegister" sheetId="2" r:id="rId2"/>
+    <sheet name="Coils" sheetId="1" r:id="rId1"/>
+    <sheet name="DiscreteInputs" sheetId="3" r:id="rId2"/>
+    <sheet name="HoldingRegisters" sheetId="2" r:id="rId3"/>
+    <sheet name="InputRegisters" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="69">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +93,218 @@
   </si>
   <si>
     <t>status1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2_grid</t>
+  </si>
+  <si>
+    <t>v2_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3_grid</t>
+  </si>
+  <si>
+    <t>s_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chg_dischg_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_state1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_state2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_PEBB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_PEBB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_PEBB3</t>
+  </si>
+  <si>
+    <t>temp_PEBB4</t>
+  </si>
+  <si>
+    <t>temp_PEBB5</t>
+  </si>
+  <si>
+    <t>fault1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fault2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fault3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fault4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humi2</t>
+  </si>
+  <si>
+    <t>humi3</t>
+  </si>
+  <si>
+    <t>p_dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_cabinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16</t>
+  </si>
+  <si>
+    <t>int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,19 +669,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0CD0D-810B-4289-BFF2-5DE3EC74785D}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A2:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -482,6 +696,89 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -491,21 +788,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A29D4-022E-48E7-B12B-DAE644634659}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -521,8 +934,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -538,8 +954,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -555,8 +974,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,8 +994,11 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -588,6 +1013,988 @@
       </c>
       <c r="E5" t="s">
         <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBE918-9F40-4320-A5DB-7980E2411B76}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/modbus_server/mappingTable.xlsx
+++ b/modbus_server/mappingTable.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6435FA-BFD5-49AE-A57B-0CBFA4862767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10FB9F2-627D-487F-B9B8-045A1176DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coils" sheetId="1" r:id="rId1"/>
-    <sheet name="DiscreteInputs" sheetId="3" r:id="rId2"/>
-    <sheet name="HoldingRegisters" sheetId="2" r:id="rId3"/>
-    <sheet name="InputRegisters" sheetId="4" r:id="rId4"/>
+    <sheet name="InitStatus" sheetId="5" r:id="rId1"/>
+    <sheet name="Coils" sheetId="1" r:id="rId2"/>
+    <sheet name="DiscreteInputs" sheetId="3" r:id="rId3"/>
+    <sheet name="HoldingRegisters" sheetId="2" r:id="rId4"/>
+    <sheet name="InputRegisters" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +306,26 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:off,1:on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoDB_connect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,11 +689,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117485E7-E0B2-407E-BFDE-CAB3E2B5AA52}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0CD0D-810B-4289-BFF2-5DE3EC74785D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -787,7 +870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A29D4-022E-48E7-B12B-DAE644634659}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -903,12 +986,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1164,12 +1247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBE918-9F40-4320-A5DB-7980E2411B76}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/modbus_server/mappingTable.xlsx
+++ b/modbus_server/mappingTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5FCEC-CE84-4572-B6A5-40124A9053E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1646E0-D0F7-43BF-92F4-25461E5B71CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
   <sheets>
     <sheet name="InitStatus" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,75 +65,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:off,1:on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoDB_connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rack_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pcs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>client_connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:off,1:on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongoDB_connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_pcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>p_sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>charge_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discharge_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +164,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體 Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,8 +195,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117485E7-E0B2-407E-BFDE-CAB3E2B5AA52}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -518,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -535,13 +559,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -552,13 +576,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -569,36 +593,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0CD0D-810B-4289-BFF2-5DE3EC74785D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -609,32 +643,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A29D4-022E-48E7-B12B-DAE644634659}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -645,177 +699,397 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2029</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2035</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2067</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2069</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2071</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2041</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2047</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2053</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2059</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1004</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1006</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1008</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1010</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1012</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2065</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -826,35 +1100,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBE918-9F40-4320-A5DB-7980E2411B76}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/modbus_server/mappingTable.xlsx
+++ b/modbus_server/mappingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1646E0-D0F7-43BF-92F4-25461E5B71CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751611FC-ED9B-4DB9-AC98-9255D06BC40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
   <sheets>
     <sheet name="InitStatus" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,34 @@
   </si>
   <si>
     <t>charge_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modbus_server_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:local,1:remote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:unsuccess,1:success,2:noexecute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,16 +550,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117485E7-E0B2-407E-BFDE-CAB3E2B5AA52}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,6 +612,40 @@
       </c>
       <c r="E3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1092,6 +1155,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2073</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,7 +1195,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/modbus_server/mappingTable.xlsx
+++ b/modbus_server/mappingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751611FC-ED9B-4DB9-AC98-9255D06BC40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB86C4-A943-4695-8B9F-29B630FBD67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
   <sheets>
     <sheet name="InitStatus" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="49">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rack_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,74 @@
   </si>
   <si>
     <t>0:unsuccess,1:success,2:noexecute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_tr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,18 +616,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117485E7-E0B2-407E-BFDE-CAB3E2B5AA52}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -574,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -594,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -611,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,16 +686,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -639,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -656,20 +720,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0CD0D-810B-4289-BFF2-5DE3EC74785D}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -696,6 +760,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -706,26 +773,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A29D4-022E-48E7-B12B-DAE644634659}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -752,6 +819,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -762,23 +832,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="3"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,42 +877,48 @@
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1">
+        <v>4015</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>2017</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2023</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -850,27 +927,30 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -879,27 +959,30 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -908,143 +991,158 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2035</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2067</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2067</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2069</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2069</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2071</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2071</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>2041</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2047</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1053,27 +1151,30 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1082,27 +1183,30 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1111,27 +1215,30 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1140,48 +1247,342 @@
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2065</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2073</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2073</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4001</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4003</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4005</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4007</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4009</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4011</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4012</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4013</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1192,19 +1593,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBE918-9F40-4320-A5DB-7980E2411B76}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1232,6 +1633,10 @@
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
